--- a/contact-book-app/target/classes/contact.xlsx
+++ b/contact-book-app/target/classes/contact.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,7 +446,7 @@
       <c r="C2" s="2">
         <v>35903</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>5432109876</v>
       </c>
     </row>
@@ -460,7 +460,7 @@
       <c r="C3" s="2">
         <v>36269</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>2345167890</v>
       </c>
     </row>
@@ -474,7 +474,7 @@
       <c r="C4" s="2">
         <v>37598</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>4321987650</v>
       </c>
     </row>
@@ -488,7 +488,7 @@
       <c r="C5" s="2">
         <v>38380</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>9087654321</v>
       </c>
     </row>
@@ -502,7 +502,7 @@
       <c r="C6" s="2">
         <v>36386</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>9980765342</v>
       </c>
     </row>
@@ -516,7 +516,7 @@
       <c r="C7" s="2">
         <v>36934</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>3124586790</v>
       </c>
     </row>
@@ -530,7 +530,7 @@
       <c r="C8" s="2">
         <v>36060</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>7612345908</v>
       </c>
     </row>
@@ -544,7 +544,7 @@
       <c r="C9" s="2">
         <v>35387</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>5678905432</v>
       </c>
     </row>
